--- a/DOM_Banner/output/dept_banner/Jose Gonzalez_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Jose Gonzalez_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,527 +360,246 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>J. J. Arias</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283797328</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Extraposition in River Plate Spanish. A case of clausal doubling?</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = "https://openalex.org/A5022234729", au_display_name = "J. J. Arias", au_orcid = NA, author_position = "first", au_affiliation_raw = "Universidad Nacional del Comahue", institution_id = "https://openalex.org/I70368782", institution_display_name = "National University of Comahue", institution_ror = "https://ror.org/02zvkba47", institution_country_code = "AR", institution_type = "education", institution_lineage = "https://openalex.org/I70368782")</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>This paper explores a set of constructions from River Plate Spanish in which propositional attitude verbs occur both with a third person feminine accusative clitic and a CP in final position (e.g., No me la esperaba que hiciera tanto frío, ‘I didn’t expect it to be so cold’). The data under analysis, which resemble the well-studied phenomenon of extraposition in English (Jespersen 1933, Postal &amp;amp; Pullum 1988, Rosenbaum 1967, Rothstein 1995, 2004, etc.), have not so far received much attention in the study of Spanish syntax. Our conclusion is that the ‘extraposed’ CPs do not constitute cases of right dislocation or right-adjunction but clear instances of clausal doubling, analogous to the well-known process of clitic doubling with accusative DPs characteristic of Argentine Spanish (e.g., Lo vi a Gonzalo, ‘I saw Gonzalo’). Along the lines of Rothstein (1995, 2004), we argue that the mechanism for licensing the CP is predication and we provide evidence against the hypothesis that the clitic is an object expletive.</t>
+          <t>2022-07-04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>Isogloss</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Isogloss</t>
+          <t>Autonomous University of Barcelona</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4210198995</t>
+          <t>https://doi.org/10.5565/rev/isogloss.198</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Autonomous University of Barcelona</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2385-4138</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.5565/rev/isogloss.198</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://revistes.uab.cat/isogloss/article/download/v8-n1-arias/198-pdf-en</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>cc-by</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://revistes.uab.cat/isogloss/article/download/v8-n1-arias/198-pdf-en</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4283797328</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4283797328", doi = "https://doi.org/10.5565/rev/isogloss.198")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.5565/rev/isogloss.198</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2020237298", "https://openalex.org/W1523051574", "https://openalex.org/W2894091096", "https://openalex.org/W2221120222", "https://openalex.org/W2147109188", "https://openalex.org/W2018471612", "https://openalex.org/W2899084033", "https://openalex.org/W2161521396", "https://openalex.org/W2482136726", "https://openalex.org/W1919099496")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Inés García‐Lunar, Daniel Pereda, Inmaculada Jorge, Jorge Sáiz Galindo, Núria Solanes, María Ascaso, Carlos Galán, J. J. Arias, Francisco Rafael Jiménez, Jorge Nuche, Ana Paula Dantas, María Morán, Emilio Camafeita, Montserrat Rigol, Coral Barbas, Jesús Vázquez, Valentín Fuster, Borja Ibáñez, Ana García‐Álvarez</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380795354</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Abstract 13499: Unravelling the Pathophysiology of Right Ventricular Maladaptive Hypertrophy in Chronic Pulmonary Hypertension Through Imaging and Omics</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5065002487", "https://openalex.org/A5065635421", "https://openalex.org/A5070953456", "https://openalex.org/A5075728484", "https://openalex.org/A5068137003", "https://openalex.org/A5078596578", "https://openalex.org/A5060615086", "https://openalex.org/A5022234729", "https://openalex.org/A5073111144", "https://openalex.org/A5057907361", "https://openalex.org/A5039352009", "https://openalex.org/A5043574365", "https://openalex.org/A5057650956", "https://openalex.org/A5006391018", 
-"https://openalex.org/A5085775380", "https://openalex.org/A5081217694", "https://openalex.org/A5074727212", "https://openalex.org/A5025226913", "https://openalex.org/A5021526763"), au_display_name = c("Inés García‐Lunar", "Daniel Pereda", "Inmaculada Jorge", "Jorge Sáiz Galindo", "Núria Solanes", "María Ascaso", "Carlos Galán", "J. J. Arias", "Francisco Rafael Jiménez", "Jorge Nuche", "Ana Paula Dantas", "María Morán", "Emilio Camafeita", "Montserrat Rigol", "Coral Barbas", "Jesús Vázquez", 
-"Valentín Fuster", "Borja Ibáñez", "Ana García‐Álvarez"), au_orcid = c("https://orcid.org/0000-0003-4117-6814", "https://orcid.org/0000-0002-0526-8722", "https://orcid.org/0000-0001-8645-9477", NA, NA, "https://orcid.org/0000-0001-5944-4827", NA, NA, NA, "https://orcid.org/0000-0002-8269-2244", "https://orcid.org/0000-0001-8514-4094", "https://orcid.org/0000-0001-5408-7189", "https://orcid.org/0000-0002-4577-5331", NA, "https://orcid.org/0000-0003-4722-491X", "https://orcid.org/0000-0003-1461-5092", 
-"https://orcid.org/0000-0002-9043-9986", "https://orcid.org/0000-0002-5036-254X", NA), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("CNIC, Madrid", "Hosp Clinic Barcelona, Barcelona, Spain", "CNIC, Madrid, Spain", "CEMBIO, Madrid, Spain", "IDIBAPS, Barcelona, Spain", "Hosp Clinic Barcelona, Barcelona, Spain", "CNIC, Madrid", 
-"Hosp Clínic, Barcelona, Spain", "IDIBAPS, Barcelona, Spain", "CNIC, Madrid, Spain", "IDIBAPS, Barcelona", "CEMBIO, Madrid, Spain", "CNIC, Madrid, Spain", "IDIBAPS, Barcelona, Spain", "CEMBIO, Madrid, Spain", "CNIC, Madrid, Spain", "MOUNT SINAI MEDICAL CENTER, New York, NY", "CNIC, Madrid", "Hosp Clinic Barcelona, Barcelona, Spain"), institution_id = c("https://openalex.org/I2809107791", "https://openalex.org/I4210115097", "https://openalex.org/I2809107791", NA, "https://openalex.org/I4210160192", 
-"https://openalex.org/I4210115097", "https://openalex.org/I2809107791", "https://openalex.org/I4210115097", "https://openalex.org/I4210160192", "https://openalex.org/I2809107791", "https://openalex.org/I4210160192", NA, "https://openalex.org/I2809107791", "https://openalex.org/I4210160192", NA, "https://openalex.org/I2809107791", "https://openalex.org/I4210095266", "https://openalex.org/I2809107791", "https://openalex.org/I4210115097"), institution_display_name = c("Spanish National Centre for Cardiovascular Research", 
-"Hospital Clínic de Barcelona", "Spanish National Centre for Cardiovascular Research", NA, "Consorci Institut D'Investigacions Biomediques August Pi I Sunyer", "Hospital Clínic de Barcelona", "Spanish National Centre for Cardiovascular Research", "Hospital Clínic de Barcelona", "Consorci Institut D'Investigacions Biomediques August Pi I Sunyer", "Spanish National Centre for Cardiovascular Research", "Consorci Institut D'Investigacions Biomediques August Pi I Sunyer", NA, "Spanish National Centre for Cardiovascular Research", 
-"Consorci Institut D'Investigacions Biomediques August Pi I Sunyer", NA, "Spanish National Centre for Cardiovascular Research", "Mount Sinai Medical Center", "Spanish National Centre for Cardiovascular Research", "Hospital Clínic de Barcelona"), institution_ror = c("https://ror.org/02qs1a797", "https://ror.org/02a2kzf50", "https://ror.org/02qs1a797", NA, "https://ror.org/054vayn55", "https://ror.org/02a2kzf50", "https://ror.org/02qs1a797", "https://ror.org/02a2kzf50", "https://ror.org/054vayn55", 
-"https://ror.org/02qs1a797", "https://ror.org/054vayn55", NA, "https://ror.org/02qs1a797", "https://ror.org/054vayn55", NA, "https://ror.org/02qs1a797", "https://ror.org/00wgjpw02", "https://ror.org/02qs1a797", "https://ror.org/02a2kzf50"), institution_country_code = c("ES", "ES", "ES", NA, "ES", "ES", "ES", "ES", "ES", "ES", "ES", NA, "ES", "ES", NA, "ES", "US", "ES", "ES"), institution_type = c("facility", "healthcare", "facility", NA, "facility", "healthcare", "facility", "healthcare", "facility", 
-"facility", "facility", NA, "facility", "facility", NA, "facility", "healthcare", "facility", "healthcare"), institution_lineage = c("https://openalex.org/I2809107791, https://openalex.org/I4210098440", "https://openalex.org/I4210115097", "https://openalex.org/I2809107791, https://openalex.org/I4210098440", NA, "https://openalex.org/I4210160192, https://openalex.org/I4387153040", "https://openalex.org/I4210115097", "https://openalex.org/I2809107791, https://openalex.org/I4210098440", "https://openalex.org/I4210115097", 
-"https://openalex.org/I4210160192, https://openalex.org/I4387153040", "https://openalex.org/I2809107791, https://openalex.org/I4210098440", "https://openalex.org/I4210160192, https://openalex.org/I4387153040", NA, "https://openalex.org/I2809107791, https://openalex.org/I4210098440", "https://openalex.org/I4210160192, https://openalex.org/I4387153040", NA, "https://openalex.org/I2809107791, https://openalex.org/I4210098440", "https://openalex.org/I4210095266", "https://openalex.org/I2809107791, https://openalex.org/I4210098440", 
-"https://openalex.org/I4210115097"))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Introduction: Right ventricular (RV) failure is the strongest determinant of survival in chronic pulmonary hypertension (PH), but its pathophysiological mechanisms remain unclear. Hypothesis: In addition to RV pressure overload, compounds liberated from the pulmonary vascular damage (identifiable by omics) may exert a detrimental effect on RV function in PH. Methods: Four different experimental models of RV pressure overload in 48 Yucatan pigs were developed: chronic postcapillary PH by pulmonary veins banding (M1); chronic PH by aorto-pulmonary shunting (M2); RV pressure overload by PA banding (thus without PH) (M3); and sham procedure (M0). Animals were evaluated at 1, 5 and 8 months after surgery by right heart catheterization, cardiac magnetic resonance (CMR), and blood/histological sampling. Unsupervised proteomic and metabolomic analyses were performed and compared among experimental groups and to the severity of RV dysfunction. Results: A total of 33 pigs completed follow-up (M1,n=8; M2,n=6; M3,n=10; and M0,n=9). As expected, M1&amp;amp;M2-animals developed chronic PH, whereas M3-animals had severely increased RV systolic pressure without PH (Table). M3-pigs developed more severe RV hypertrophy (significantly higher mass on CMR and cardiomyocyte area on histology), but maintained normal function. In contrast, M1&amp;amp;M2 animals developed RV systolic disfunction and increased myocardial apoptosis in M1. Plasma metabolomic and proteomic patterns differed among groups, highlighting greater inflammation and taurine/arginine deficiency in PH models (M1&amp;amp;M2), coagulation disturbances in M1, and predominant lipidomic changes in M3. Key proteins/metabolites from coagulation, complement system and apolipoproteins pathways significantly associated with RV performance. Conclusion: Maladaptive RV hypertrophy in PH is associated with significant changes in plasma proteins and metabolites. Their identification may help to identify potential targets.</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>Circulation</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Circulation</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S116251202</t>
+          <t>https://doi.org/10.1161/circ.146.suppl_1.13499</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0009-7322</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.13499</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>146</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Suppl_1</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4380795354</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4380795354", doi = "https://doi.org/10.1161/circ.146.suppl_1.13499")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1161/circ.146.suppl_1.13499</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2059692513", "https://openalex.org/W3151612379", "https://openalex.org/W1584216341", "https://openalex.org/W1976292040", "https://openalex.org/W1977266444", "https://openalex.org/W3199635667", "https://openalex.org/W2056980222", "https://openalex.org/W2981894353", "https://openalex.org/W2326587780", "https://openalex.org/W2902910622")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Jose Gonzalez_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Jose Gonzalez_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Universidad Nacional del Comahue</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283797328</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Extraposition in River Plate Spanish. A case of clausal doubling?</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-07-04</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Isogloss</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Autonomous University of Barcelona</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.5565/rev/isogloss.198</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.5565/rev/isogloss.198</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CNIC, Madrid; Hosp Clinic Barcelona, Barcelona, Spain; CNIC, Madrid, Spain; CEMBIO, Madrid, Spain; IDIBAPS, Barcelona, Spain; Hosp Clinic Barcelona, Barcelona, Spain; CNIC, Madrid; Hosp Clínic, Barcelona, Spain; IDIBAPS, Barcelona, Spain; CNIC, Madrid, Spain; IDIBAPS, Barcelona; CEMBIO, Madrid, Spain; CNIC, Madrid, Spain; IDIBAPS, Barcelona, Spain; CEMBIO, Madrid, Spain; CNIC, Madrid, Spain; MOUNT SINAI MEDICAL CENTER, New York, NY; CNIC, Madrid; Hosp Clinic Barcelona, Barcelona, Spain</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380795354</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Abstract 13499: Unravelling the Pathophysiology of Right Ventricular Maladaptive Hypertrophy in Chronic Pulmonary Hypertension Through Imaging and Omics</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-11-08</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Circulation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.13499</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.13499</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
